--- a/LightingWorksheet.xlsx
+++ b/LightingWorksheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>i</t>
   </si>
@@ -89,1337 +89,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1980,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,108 +1408,309 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <f>ABS(C32-A32)</f>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>(B32-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F36" si="21">E32+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H36" si="22">F32-D32</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I32">
+        <f>MIN(1,MAX(0,H32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <f>ABS(C33-A33)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E36" si="23">(B33-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I36" si="24">MIN(1,MAX(0,H33))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D36" si="25">ABS(C34-A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="22"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>0.66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0.83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I27">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0.34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0.17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>0.17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0.66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0.34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LightingWorksheet.xlsx
+++ b/LightingWorksheet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="In Absolute LEDs" sheetId="1" r:id="rId1"/>
+    <sheet name="In percentage (1000 units)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>i</t>
   </si>
@@ -89,7 +90,257 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -652,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,85 +1842,1155 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
       <formula>0.66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>0.83</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I27">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>0.34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+      <formula>0.17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+      <formula>0.17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+      <formula>0.66</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+      <formula>0.34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I36">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2-A2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>(B2-1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="0">E2+1</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H6" si="1">F2-D2</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f>MIN(1,MAX(0,H2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <f>ABS(C3-A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">(B3-1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="3">MIN(1,MAX(0,H3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="4">ABS(C4-A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>25.33</v>
+      </c>
+      <c r="D9">
+        <f>ABS(C9-A9)</f>
+        <v>2.3299999999999983</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E13" si="5">(B9-1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F13" si="6">E9+1</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H13" si="7">F9-D9</f>
+        <v>-1.3299999999999983</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I13" si="8">MIN(1,MAX(0,H9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>25.33</v>
+      </c>
+      <c r="D10">
+        <f>ABS(C10-A10)</f>
+        <v>1.3299999999999983</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>25.33</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D13" si="9">ABS(C11-A11)</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0.67000000000000171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>25.33</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="9"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>25.33</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="9"/>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>-0.67000000000000171</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>25.33</v>
+      </c>
+      <c r="D16">
+        <f>ABS(C16-A16)</f>
+        <v>2.3299999999999983</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E21" si="10">(B16-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <f>E16+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <f>F16-D16</f>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I21" si="11">MIN(1,MAX(0,H16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>25.33</v>
+      </c>
+      <c r="D17">
+        <f>ABS(C17-A17)</f>
+        <v>1.3299999999999983</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F21" si="12">E17+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="13">F17-D17</f>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="11"/>
+        <v>0.17000000000000171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>25.33</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="14">ABS(C18-A18)</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="13"/>
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>25.33</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="14"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="13"/>
+        <v>0.82999999999999829</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="11"/>
+        <v>0.82999999999999829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>25.33</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="14"/>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="13"/>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>25.33</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="14"/>
+        <v>2.6700000000000017</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>-1.1700000000000017</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>25.33</v>
+      </c>
+      <c r="D24">
+        <f>ABS(C24-A24)</f>
+        <v>2.3299999999999983</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E29" si="15">(B24-1)/2</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F29" si="16">E24+1</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H29" si="17">F24-D24</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I29" si="18">MIN(1,MAX(0,H24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>25.33</v>
+      </c>
+      <c r="D25">
+        <f>ABS(C25-A25)</f>
+        <v>1.3299999999999983</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="17"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="18"/>
+        <v>0.67000000000000171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>25.33</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="19">ABS(C26-A26)</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="17"/>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>25.33</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="19"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="17"/>
+        <v>1.3299999999999983</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>25.33</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="19"/>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="17"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="18"/>
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>25.33</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="19"/>
+        <v>2.6700000000000017</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="17"/>
+        <v>-0.67000000000000171</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <f>ABS(C32-A32)</f>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>(B32-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F36" si="20">E32+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H36" si="21">F32-D32</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I32">
+        <f>MIN(1,MAX(0,H32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <f>ABS(C33-A33)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E36" si="22">(B33-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I36" si="23">MIN(1,MAX(0,H33))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D36" si="24">ABS(C34-A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="21"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>0.66</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>0.83</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I10">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>0.34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>0.17</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>0.17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>0.17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1714,6 +3035,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>